--- a/规程依据/K(t)值表.xlsx
+++ b/规程依据/K(t)值表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="27760" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="157" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1284,6 +1284,24 @@
         <v>1.0017659999999999</v>
       </c>
     </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
